--- a/data/trans_bre/P74B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,85; 75,27</t>
+          <t>42,28; 74,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,51; 77,57</t>
+          <t>39,23; 77,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,69; 67,05</t>
+          <t>27,52; 66,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>167,83; 886,94</t>
+          <t>157,83; 834,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>163,98; 907,96</t>
+          <t>161,53; 1044,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,23; 587,36</t>
+          <t>88,83; 641,43</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,07; 86,66</t>
+          <t>72,74; 87,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,18; 49,57</t>
+          <t>30,9; 49,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,89; 64,05</t>
+          <t>49,13; 64,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>678,26; 1770,9</t>
+          <t>694,25; 1804,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>155,37; 405,13</t>
+          <t>157,97; 396,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>359,32; 910,26</t>
+          <t>369,63; 905,23</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,52; 83,28</t>
+          <t>71,1; 82,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,61; 59,73</t>
+          <t>45,75; 59,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,03; 58,12</t>
+          <t>43,73; 57,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>666,99; 1386,17</t>
+          <t>657,51; 1380,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>291,47; 589,82</t>
+          <t>282,18; 588,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>263,6; 529,25</t>
+          <t>269,27; 550,64</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,12; 81,17</t>
+          <t>66,45; 81,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,43; 65,67</t>
+          <t>49,02; 64,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,3; 62,54</t>
+          <t>47,13; 62,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>905,05; 2685,62</t>
+          <t>871,73; 2607,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>338,22; 907,4</t>
+          <t>339,4; 851,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>433,31; 1094,5</t>
+          <t>432,17; 1092,49</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,59; 79,39</t>
+          <t>66,19; 78,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,32; 71,4</t>
+          <t>58,72; 71,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,71; 61,35</t>
+          <t>46,52; 61,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>605,72; 1365,07</t>
+          <t>608,58; 1384,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>389,99; 835,09</t>
+          <t>396,86; 853,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>242,99; 462,26</t>
+          <t>242,16; 461,5</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,43</t>
+          <t>71,97; 78,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,05</t>
+          <t>51,66; 59,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,14; 57,53</t>
+          <t>49,67; 57,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>802,34; 1210,52</t>
+          <t>802,67; 1213,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>357,72; 529,41</t>
+          <t>362,89; 547,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>352,6; 512,46</t>
+          <t>352,21; 517,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,28; 74,92</t>
+          <t>40,63; 74,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,23; 77,6</t>
+          <t>40,75; 78,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,52; 66,58</t>
+          <t>27,52; 67,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>157,83; 834,72</t>
+          <t>151,28; 857,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>161,53; 1044,7</t>
+          <t>156,99; 996,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,83; 641,43</t>
+          <t>87,05; 650,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,74; 87,47</t>
+          <t>72,47; 86,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,9; 49,25</t>
+          <t>30,32; 49,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,13; 64,78</t>
+          <t>48,69; 64,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>694,25; 1804,58</t>
+          <t>709,88; 1798,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>157,97; 396,86</t>
+          <t>149,13; 404,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>369,63; 905,23</t>
+          <t>356,01; 922,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,1; 82,93</t>
+          <t>70,13; 82,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,75; 59,72</t>
+          <t>45,15; 59,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,73; 57,35</t>
+          <t>44,0; 57,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>657,51; 1380,53</t>
+          <t>645,19; 1444,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>282,18; 588,75</t>
+          <t>287,56; 597,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>269,27; 550,64</t>
+          <t>273,88; 560,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,45; 81,08</t>
+          <t>65,93; 81,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,02; 64,64</t>
+          <t>49,51; 65,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,13; 62,54</t>
+          <t>46,74; 62,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>871,73; 2607,98</t>
+          <t>869,86; 2771,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>339,4; 851,98</t>
+          <t>343,77; 898,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>432,17; 1092,49</t>
+          <t>438,1; 1108,18</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,19; 78,76</t>
+          <t>65,91; 78,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,72; 71,3</t>
+          <t>58,89; 71,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,52; 61,82</t>
+          <t>47,13; 62,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>608,58; 1384,32</t>
+          <t>589,56; 1397,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>396,86; 853,53</t>
+          <t>388,34; 831,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>242,16; 461,5</t>
+          <t>248,95; 495,33</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,97; 78,52</t>
+          <t>72,08; 78,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,28</t>
+          <t>51,9; 59,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,67; 57,42</t>
+          <t>50,12; 57,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>802,67; 1213,96</t>
+          <t>824,22; 1234,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>362,89; 547,35</t>
+          <t>363,99; 547,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>352,21; 517,05</t>
+          <t>359,19; 527,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,63; 74,86</t>
+          <t>41,85; 75,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,75; 78,95</t>
+          <t>39,51; 77,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,52; 67,86</t>
+          <t>27,69; 67,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>151,28; 857,76</t>
+          <t>167,83; 886,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>156,99; 996,33</t>
+          <t>163,98; 907,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,05; 650,11</t>
+          <t>90,23; 587,36</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,47; 86,35</t>
+          <t>72,07; 86,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,32; 49,98</t>
+          <t>31,18; 49,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,69; 64,21</t>
+          <t>47,89; 64,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>709,88; 1798,28</t>
+          <t>678,26; 1770,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>149,13; 404,94</t>
+          <t>155,37; 405,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>356,01; 922,39</t>
+          <t>359,32; 910,26</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,13; 82,89</t>
+          <t>70,52; 83,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,15; 59,78</t>
+          <t>45,61; 59,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,0; 57,52</t>
+          <t>44,03; 58,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>645,19; 1444,14</t>
+          <t>666,99; 1386,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>287,56; 597,9</t>
+          <t>291,47; 589,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>273,88; 560,55</t>
+          <t>263,6; 529,25</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,93; 81,08</t>
+          <t>66,12; 81,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,51; 65,14</t>
+          <t>49,43; 65,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,74; 62,53</t>
+          <t>47,3; 62,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>869,86; 2771,06</t>
+          <t>905,05; 2685,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>343,77; 898,32</t>
+          <t>338,22; 907,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>438,1; 1108,18</t>
+          <t>433,31; 1094,5</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,91; 78,72</t>
+          <t>65,59; 79,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,89; 71,65</t>
+          <t>58,32; 71,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,13; 62,45</t>
+          <t>46,71; 61,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>589,56; 1397,38</t>
+          <t>605,72; 1365,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>388,34; 831,23</t>
+          <t>389,99; 835,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>248,95; 495,33</t>
+          <t>242,99; 462,26</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,08; 78,6</t>
+          <t>71,72; 78,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,9; 59,64</t>
+          <t>51,66; 59,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,12; 57,26</t>
+          <t>50,14; 57,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>824,22; 1234,24</t>
+          <t>802,34; 1210,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>363,99; 547,79</t>
+          <t>357,72; 529,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>359,19; 527,81</t>
+          <t>352,6; 512,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59,84</t>
+          <t>76,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61,49</t>
+          <t>44,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,12</t>
+          <t>55,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>372,49%</t>
+          <t>855,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>377,04%</t>
+          <t>279,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>252,29%</t>
+          <t>485,83%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,85; 75,27</t>
+          <t>68,94; 81,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,51; 77,57</t>
+          <t>34,83; 52,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,69; 67,05</t>
+          <t>46,76; 62,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>167,83; 886,94</t>
+          <t>586,71; 1298,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>163,98; 907,96</t>
+          <t>174,16; 416,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,23; 587,36</t>
+          <t>320,35; 717,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,61</t>
+          <t>77,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,41</t>
+          <t>52,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,68</t>
+          <t>50,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1096,83%</t>
+          <t>949,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>261,48%</t>
+          <t>421,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>575,15%</t>
+          <t>380,86%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,07; 86,66</t>
+          <t>70,52; 83,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,18; 49,57</t>
+          <t>45,61; 59,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,89; 64,05</t>
+          <t>44,03; 58,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>678,26; 1770,9</t>
+          <t>666,99; 1386,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>155,37; 405,13</t>
+          <t>291,47; 589,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>359,32; 910,26</t>
+          <t>263,6; 529,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>77,54</t>
+          <t>74,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,98</t>
+          <t>57,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>50,85</t>
+          <t>55,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>949,44%</t>
+          <t>1505,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>421,72%</t>
+          <t>540,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>380,86%</t>
+          <t>697,33%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,52; 83,28</t>
+          <t>66,12; 81,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,61; 59,73</t>
+          <t>49,43; 65,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,03; 58,12</t>
+          <t>47,3; 62,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>666,99; 1386,17</t>
+          <t>905,05; 2685,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>291,47; 589,82</t>
+          <t>338,22; 907,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>263,6; 529,25</t>
+          <t>433,31; 1094,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>74,52</t>
+          <t>72,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>57,59</t>
+          <t>65,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55,11</t>
+          <t>54,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1505,37%</t>
+          <t>917,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>540,33%</t>
+          <t>575,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>697,33%</t>
+          <t>333,97%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,12; 81,17</t>
+          <t>65,59; 79,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,43; 65,67</t>
+          <t>58,32; 71,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,3; 62,54</t>
+          <t>46,71; 61,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>905,05; 2685,62</t>
+          <t>605,72; 1365,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>338,22; 907,4</t>
+          <t>389,99; 835,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>433,31; 1094,5</t>
+          <t>242,99; 462,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>72,78</t>
+          <t>75,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>65,39</t>
+          <t>55,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>54,5</t>
+          <t>53,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>917,31%</t>
+          <t>995,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>575,26%</t>
+          <t>441,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>333,97%</t>
+          <t>431,14%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,59; 79,39</t>
+          <t>71,72; 78,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,32; 71,4</t>
+          <t>51,66; 59,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,71; 61,35</t>
+          <t>50,14; 57,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>605,72; 1365,07</t>
+          <t>802,34; 1210,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>389,99; 835,09</t>
+          <t>357,72; 529,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>242,99; 462,26</t>
+          <t>352,6; 512,46</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>75,33</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>55,53</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>53,69</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>995,67%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>441,83%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>431,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>71,72; 78,43</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>51,66; 59,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>50,14; 57,53</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>802,34; 1210,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>357,72; 529,41</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>352,6; 512,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P74B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,94; 81,98</t>
+          <t>69,64; 82,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,83; 52,37</t>
+          <t>36,49; 52,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,76; 62,32</t>
+          <t>48,14; 63,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>586,71; 1298,89</t>
+          <t>575,83; 1260,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>174,16; 416,23</t>
+          <t>188,13; 418,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>320,35; 717,36</t>
+          <t>319,49; 758,85</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,52; 83,28</t>
+          <t>71,16; 83,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,61; 59,73</t>
+          <t>45,85; 59,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,03; 58,12</t>
+          <t>44,5; 58,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>666,99; 1386,17</t>
+          <t>644,59; 1403,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>291,47; 589,82</t>
+          <t>298,02; 633,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>263,6; 529,25</t>
+          <t>268,89; 546,31</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,12; 81,17</t>
+          <t>66,22; 81,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,43; 65,67</t>
+          <t>49,94; 65,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,3; 62,54</t>
+          <t>47,39; 61,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>905,05; 2685,62</t>
+          <t>923,11; 2821,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>338,22; 907,4</t>
+          <t>344,51; 843,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>433,31; 1094,5</t>
+          <t>425,12; 1066,63</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,59; 79,39</t>
+          <t>65,9; 79,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,32; 71,4</t>
+          <t>58,7; 71,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,71; 61,35</t>
+          <t>46,49; 61,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>605,72; 1365,07</t>
+          <t>622,37; 1380,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>389,99; 835,09</t>
+          <t>401,05; 881,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>242,99; 462,26</t>
+          <t>235,89; 456,79</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,43</t>
+          <t>71,91; 78,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,05</t>
+          <t>51,29; 58,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,14; 57,53</t>
+          <t>49,88; 57,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>802,34; 1210,52</t>
+          <t>810,39; 1228,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>357,72; 529,41</t>
+          <t>366,32; 545,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>352,6; 512,46</t>
+          <t>363,85; 527,04</t>
         </is>
       </c>
     </row>
